--- a/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyPlanRecordError.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="导入错误清单模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -20,6 +20,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>应急预案启动记录错误清单</t>
     </r>
     <r>
@@ -1113,7 +1119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,9 +1192,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1262,12 +1265,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1597,8 +1594,8 @@
   <sheetPr/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1638,7 +1635,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="48"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:9">
       <c r="A3" s="10" t="s">
@@ -1657,7 +1654,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="49"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9">
       <c r="A4" s="13" t="s">
@@ -1676,7 +1673,7 @@
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="49"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:9">
       <c r="A5" s="13" t="s">
@@ -1695,7 +1692,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="49"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:9">
       <c r="A6" s="18" t="s">
@@ -1710,7 +1707,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="49"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" ht="63" customHeight="1" spans="1:9">
       <c r="A7" s="21" t="s">
@@ -1725,61 +1722,61 @@
       <c r="F7" s="23"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="49"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" ht="44" customHeight="1" spans="1:9">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="49"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:9">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:9">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="50"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:9">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1795,87 +1792,87 @@
         <v>30</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="50"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:9">
-      <c r="A12" s="36"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
       <c r="D12" s="17"/>
       <c r="E12" s="11"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="50"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:9">
-      <c r="A13" s="37"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="20"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="51"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" ht="34" customHeight="1" spans="1:9">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:9">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" ht="25" customHeight="1" spans="1:9">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="50"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" ht="33" customHeight="1" spans="1:9">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1893,91 +1890,91 @@
       <c r="F17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="50"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" ht="28" customHeight="1" spans="1:9">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="50"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:9">
-      <c r="A19" s="37"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="51"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" ht="15" customHeight="1" spans="1:9">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" ht="28" customHeight="1" spans="1:9">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" ht="28" customHeight="1" spans="1:9">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="49" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:9">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1995,29 +1992,29 @@
       <c r="F23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="52" t="s">
+      <c r="I23" s="49" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" ht="28" customHeight="1" spans="1:9">
-      <c r="A24" s="36"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="47"/>
+      <c r="G24" s="46"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="52"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:9">
-      <c r="A25" s="37"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -2025,20 +2022,20 @@
       <c r="F25" s="19"/>
       <c r="G25" s="22"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="53"/>
+      <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="24">
